--- a/my_package/traj_excel_10/tested_robot_traj_3_.xlsx
+++ b/my_package/traj_excel_10/tested_robot_traj_3_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-1.77368233250472</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="C1" t="n">
-        <v>1.56825638008009</v>
+        <v>0.002539946714806698</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379315696670069</v>
+        <v>-1.379315696670069</v>
       </c>
       <c r="E1" t="n">
-        <v>1.381855808202115</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796395407675</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="G1" t="n">
         <v>0.2028859211499618</v>
@@ -449,19 +449,19 @@
         <v>0.2213476497465884</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.819293683204713</v>
+        <v>1.819293683204713</v>
       </c>
       <c r="C2" t="n">
-        <v>1.568418072846974</v>
+        <v>0.002378253947922411</v>
       </c>
       <c r="D2" t="n">
-        <v>1.380517981017872</v>
+        <v>-1.380517981017872</v>
       </c>
       <c r="E2" t="n">
-        <v>1.382896421261855</v>
+        <v>0.1878999055330415</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796393670107</v>
+        <v>1.570796393670107</v>
       </c>
       <c r="G2" t="n">
         <v>0.2484972728326442</v>
@@ -472,19 +472,19 @@
         <v>0.4426952994931767</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.023662773910207</v>
+        <v>2.023662773910207</v>
       </c>
       <c r="C3" t="n">
-        <v>1.56914256364224</v>
+        <v>0.001653763152656354</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385905011990622</v>
+        <v>-1.385905011990622</v>
       </c>
       <c r="E3" t="n">
-        <v>1.387559057678701</v>
+        <v>0.1832372691161953</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796385884652</v>
+        <v>1.570796385884652</v>
       </c>
       <c r="G3" t="n">
         <v>0.4528663679412378</v>
@@ -495,19 +495,19 @@
         <v>0.664042949239765</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.31119068080906</v>
+        <v>2.31119068080906</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570161853404754</v>
+        <v>0.000634473390142702</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39348405310025</v>
+        <v>-1.39348405310025</v>
       </c>
       <c r="E4" t="n">
-        <v>1.39411894442546</v>
+        <v>0.1766773823694363</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796374931256</v>
+        <v>1.570796374931256</v>
       </c>
       <c r="G4" t="n">
         <v>0.7403942810348323</v>
@@ -518,19 +518,19 @@
         <v>0.8853905989863534</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.515559771514555</v>
+        <v>2.515559771514555</v>
       </c>
       <c r="C5" t="n">
-        <v>1.57088634420002</v>
+        <v>-9.001740512335757e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>1.398871084073</v>
+        <v>-1.398871084073</v>
       </c>
       <c r="E5" t="n">
-        <v>1.398781580842306</v>
+        <v>0.1720147459525901</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796367145801</v>
+        <v>1.570796367145801</v>
       </c>
       <c r="G5" t="n">
         <v>0.9447633761434262</v>
@@ -541,19 +541,19 @@
         <v>1.106738248732942</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.561171122214548</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="C6" t="n">
-        <v>1.571048036966904</v>
+        <v>-0.000251710172007643</v>
       </c>
       <c r="D6" t="n">
-        <v>1.400073368420803</v>
+        <v>-1.400073368420803</v>
       </c>
       <c r="E6" t="n">
-        <v>1.399822193902047</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796365408233</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="G6" t="n">
         <v>0.9903747278261079</v>
